--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1009760.27089486</v>
+        <v>-1012441.133958268</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14005444.46533411</v>
+        <v>14005444.4653341</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0.9473708052317769</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>85.91519819956669</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>129.4388943593363</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>8.957397012179364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>365.1602862861474</v>
+        <v>150.100817314451</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -953,16 +953,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>2.459987414015729</v>
       </c>
       <c r="S7" t="n">
-        <v>9.748135055916428</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>206.0547905495201</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>46.44513822379793</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>122.9255358899393</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>22.5995081005863</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>100.4429877184272</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.48314223074837</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>65.56423921895201</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2059,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>154.0489950679129</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>177.2869857517495</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2078,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>97.02629574295541</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712588</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>91.89996056624804</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>80.33989744908958</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>214.0647808588589</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>92.83802857056276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545302</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972045</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1515.064632051139</v>
+        <v>845.8055914865818</v>
       </c>
       <c r="C2" t="n">
-        <v>1515.064632051139</v>
+        <v>476.84307454617</v>
       </c>
       <c r="D2" t="n">
-        <v>1156.798933444388</v>
+        <v>118.5773759394195</v>
       </c>
       <c r="E2" t="n">
-        <v>771.0106808461439</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.2467865680031</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4364,16 +4364,16 @@
         <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1888.530390312219</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="W2" t="n">
-        <v>1888.530390312219</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="X2" t="n">
-        <v>1515.064632051139</v>
+        <v>1622.544763526515</v>
       </c>
       <c r="Y2" t="n">
-        <v>1515.064632051139</v>
+        <v>1232.405431550703</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>474.7770143030104</v>
+        <v>1739.734756450701</v>
       </c>
       <c r="C4" t="n">
-        <v>305.8408313751036</v>
+        <v>1570.798573522794</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>1420.681934110458</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>1272.768840528065</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>1125.878893030155</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>2431.592970461431</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>2431.592970461431</v>
       </c>
       <c r="V4" t="n">
-        <v>1114.255484944676</v>
+        <v>2431.592970461431</v>
       </c>
       <c r="W4" t="n">
-        <v>1105.207609174798</v>
+        <v>2142.175800424471</v>
       </c>
       <c r="X4" t="n">
-        <v>877.2180582767803</v>
+        <v>2142.175800424471</v>
       </c>
       <c r="Y4" t="n">
-        <v>656.4254791332502</v>
+        <v>1921.38322128094</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>842.8595545333294</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C5" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D5" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331021</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800315</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281609</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926628</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532453</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.313418796633</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.313418796633</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.313418796633</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.847660535553</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="Y5" t="n">
-        <v>1211.708328559741</v>
+        <v>1768.949738926589</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,37 +4635,37 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500115</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>343.626060018203</v>
+        <v>590.2049751143501</v>
       </c>
       <c r="L6" t="n">
-        <v>638.3296170496749</v>
+        <v>884.9085321458217</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105042</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>476.1547555788524</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>307.2185726509455</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693237</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1633.961284302764</v>
       </c>
       <c r="S7" t="n">
-        <v>1524.016112523498</v>
+        <v>1437.332536462625</v>
       </c>
       <c r="T7" t="n">
-        <v>1524.016112523498</v>
+        <v>1214.354055657361</v>
       </c>
       <c r="U7" t="n">
-        <v>1524.016112523498</v>
+        <v>1214.354055657361</v>
       </c>
       <c r="V7" t="n">
-        <v>1269.331624317611</v>
+        <v>1214.354055657361</v>
       </c>
       <c r="W7" t="n">
-        <v>1269.331624317611</v>
+        <v>924.9368856203998</v>
       </c>
       <c r="X7" t="n">
-        <v>1269.331624317611</v>
+        <v>696.9473347223825</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>476.1547555788524</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1545.153177427445</v>
+        <v>1842.29463946833</v>
       </c>
       <c r="C8" t="n">
-        <v>1176.190660487034</v>
+        <v>1842.29463946833</v>
       </c>
       <c r="D8" t="n">
-        <v>817.9249618802833</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E8" t="n">
-        <v>817.9249618802833</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800315</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400157</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2308.758267664337</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V8" t="n">
-        <v>2308.758267664337</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W8" t="n">
-        <v>2308.758267664337</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="X8" t="n">
-        <v>1935.292509403257</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="Y8" t="n">
-        <v>1545.153177427445</v>
+        <v>2228.894479532451</v>
       </c>
     </row>
     <row r="9">
@@ -4875,34 +4875,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310615</v>
+        <v>590.2049751143493</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625334</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217536</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1590.463386300793</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>496.1664670606424</v>
+        <v>344.3501774655457</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606424</v>
+        <v>175.4139945376388</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>175.4139945376388</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>175.4139945376388</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
         <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U10" t="n">
-        <v>1244.744376093918</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="V10" t="n">
-        <v>990.0598878880309</v>
+        <v>1082.549477544054</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6427178510703</v>
+        <v>793.1323075070932</v>
       </c>
       <c r="X10" t="n">
-        <v>677.8149318908821</v>
+        <v>565.1427566090758</v>
       </c>
       <c r="Y10" t="n">
-        <v>677.8149318908821</v>
+        <v>344.3501774655457</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5054,10 +5054,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2429.303343953242</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2246.448509608146</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.448509608146</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1957.373282952344</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.688794746457</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1413.271624709496</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.282073811479</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679489</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2380.736579318693</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832663</v>
+        <v>2161.135114341634</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1872.059887685832</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1617.375399479945</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="17">
@@ -5501,31 +5501,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>783.5579673960132</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>614.6217844681063</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>464.5051450557705</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X19" t="n">
-        <v>965.2064322262529</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y19" t="n">
-        <v>965.2064322262529</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,19 +5832,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647281</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368213</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>481.4479471244855</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420924</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949679</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,7 +6005,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>800.5007694647281</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C25" t="n">
-        <v>631.5645865368213</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D25" t="n">
-        <v>481.4479471244855</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E25" t="n">
-        <v>333.5348535420924</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F25" t="n">
-        <v>186.644906044182</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G25" t="n">
-        <v>186.644906044182</v>
+        <v>316.6799057705107</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>174.9680746127088</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949679</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708871</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885522</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679635</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642674</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744657</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011269</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="29">
@@ -6437,49 +6437,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154078</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>709.4207169875009</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>559.3040775751651</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.390983992772</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.390983992772</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832664</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855605</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199803</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993916</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956955</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058938</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154078</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6683,52 +6683,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150031</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6865,43 +6865,43 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.55866301478</v>
@@ -6950,37 +6950,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797193</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797193</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>691.195150674524</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,25 +7169,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349515</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061504</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.043492616111</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G40" t="n">
-        <v>268.555303634547</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384012</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380722</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311316</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7834,7 +7834,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
         <v>1978.840049838285</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>45.76488231024391</v>
+        <v>168.7434581780647</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179987</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154984</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>168.7434581780638</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,10 +8541,10 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071653</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>70.03064962107749</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-1.989519660128281e-12</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59.99748538340033</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>380.98299926703</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>18.42977678916201</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.8370602705682</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>45.99097492814199</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>48.89210447937332</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4620467826926</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>98.08864825591513</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>48.4226696372877</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>48.39475227997583</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>72.11969353038577</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0.9259388694759565</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>72.11969353038521</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.68610972170609</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-5.278000386753752e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-5.329070518200751e-13</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943217</v>
+        <v>169252.1408943218</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660709</v>
@@ -26320,16 +26320,16 @@
         <v>205260.4424660709</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
+        <v>201786.6499225016</v>
+      </c>
+      <c r="H2" t="n">
         <v>201786.6499225015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225016</v>
@@ -26338,16 +26338,16 @@
         <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
+        <v>205260.4424660711</v>
+      </c>
+      <c r="M2" t="n">
         <v>205260.4424660712</v>
       </c>
-      <c r="M2" t="n">
-        <v>205260.4424660709</v>
-      </c>
       <c r="N2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660709</v>
@@ -26366,13 +26366,13 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>6.34467155123275e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245455</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50904.45160960683</v>
+        <v>50904.45160960677</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467442</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467442</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7507.368461719689</v>
+      </c>
+      <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>7507.36846171968</v>
       </c>
-      <c r="I4" t="n">
-        <v>7507.368461719668</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7507.368461719572</v>
-      </c>
       <c r="K4" t="n">
-        <v>7507.368461719623</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="L4" t="n">
+        <v>15498.2277248132</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15498.22772481316</v>
+      </c>
+      <c r="N4" t="n">
+        <v>15498.22772481314</v>
+      </c>
+      <c r="O4" t="n">
         <v>15498.22772481313</v>
-      </c>
-      <c r="M4" t="n">
-        <v>15498.22772481303</v>
-      </c>
-      <c r="N4" t="n">
-        <v>15498.22772481312</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15498.22772481312</v>
       </c>
       <c r="P4" t="n">
         <v>15498.22772481312</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1089341.866731049</v>
+        <v>-1089701.949746767</v>
       </c>
       <c r="C6" t="n">
-        <v>-20791.19352051875</v>
+        <v>-20791.19352051819</v>
       </c>
       <c r="D6" t="n">
-        <v>-20791.19352051808</v>
+        <v>-20791.19352051831</v>
       </c>
       <c r="E6" t="n">
-        <v>-414328.6899876707</v>
+        <v>-414363.4279131066</v>
       </c>
       <c r="F6" t="n">
-        <v>93156.75163687485</v>
+        <v>93122.01371143915</v>
       </c>
       <c r="G6" t="n">
-        <v>93156.7516368747</v>
+        <v>93122.01371143907</v>
       </c>
       <c r="H6" t="n">
-        <v>93156.75163687459</v>
+        <v>93122.01371143904</v>
       </c>
       <c r="I6" t="n">
-        <v>93156.75163687479</v>
+        <v>93122.0137114391</v>
       </c>
       <c r="J6" t="n">
-        <v>-74448.42617310781</v>
+        <v>-74483.16409854345</v>
       </c>
       <c r="K6" t="n">
-        <v>93156.7516368748</v>
+        <v>93122.01371143904</v>
       </c>
       <c r="L6" t="n">
-        <v>67170.38089371087</v>
+        <v>67170.38089371078</v>
       </c>
       <c r="M6" t="n">
-        <v>-46009.19484158431</v>
+        <v>-46009.19484158405</v>
       </c>
       <c r="N6" t="n">
-        <v>86598.09888734252</v>
+        <v>86598.09888734244</v>
       </c>
       <c r="O6" t="n">
-        <v>86598.0988873427</v>
+        <v>86598.09888734238</v>
       </c>
       <c r="P6" t="n">
         <v>86598.09888734238</v>
@@ -26713,16 +26713,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203969</v>
@@ -26738,10 +26738,10 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000393</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996091</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.7363562800803</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>388.4462689525494</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27540,13 +27540,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>91.30980163787561</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>277.5656013244117</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17.57355537733315</v>
+        <v>232.6330243490295</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>99.0975850055579</v>
       </c>
       <c r="S7" t="n">
-        <v>184.914325305821</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>148.6282510711629</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>360.4309075179135</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>22.49551213299195</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>203.1101472884509</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28798,10 +28798,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.213166140747925e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30052,7 +30052,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203967</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181061</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491901</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31437,46 +31437,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,28 +31838,28 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>309.7666854143577</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,22 +32081,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,7 +32327,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,31 +33014,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162543</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565758</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>688.8020111197778</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175656</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,31 +33962,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319844</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939913</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091748</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>232.3523785537289</v>
+        <v>355.3309544215495</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378504</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000394</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928741</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961232</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805409</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434849</v>
+        <v>355.3309544215487</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000393</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>405.4553316172006</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>171.2123056344834</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,22 +35729,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,7 +35975,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146267</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121313</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>546.2057666753334</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819473</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902929</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875399</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
